--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_55_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_55_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.9001114016647715, 3.599103576570487]</t>
+          <t>[2.8977145100367725, 3.601500468198486]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.0006964350797686869, 0.36640237742552495]</t>
+          <t>[0.0007345544512995517, 0.3663642580539941]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.04916998450508747</v>
+        <v>0.04912471944090013</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04916998450508747</v>
+        <v>0.04912471944090013</v>
       </c>
       <c r="W2" t="n">
         <v>2.63459459459467</v>
